--- a/teste.xlsx
+++ b/teste.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nextrental-my.sharepoint.com/personal/victor_souza_nextrental_com_br/Documents/Área de Trabalho/bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="8_{6701F959-E581-4F78-9C8C-03DA45DFF17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CD024DA-E320-4205-9096-133DF7C4A603}"/>
+  <xr:revisionPtr revIDLastSave="699" documentId="13_ncr:1_{A5F85EC6-2A1A-42C3-9561-3B8442BADEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1185058A-F074-4AA7-88E9-62357B20AE8A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{450D5B48-F670-4EB3-8212-68DADCB5FA92}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Horimetro" sheetId="3" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="49">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -86,26 +88,113 @@
     <t>O equipamento foi lavado?</t>
   </si>
   <si>
+    <t>fabricio</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>FABIO</t>
+  </si>
+  <si>
+    <t>iago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonardo </t>
+  </si>
+  <si>
+    <t>vinicius</t>
+  </si>
+  <si>
+    <t>braz</t>
+  </si>
+  <si>
+    <t>Wenderson</t>
+  </si>
+  <si>
+    <t>serviço interno</t>
+  </si>
+  <si>
     <t>CORRETIVA</t>
   </si>
   <si>
-    <t>desgaste</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>nao liga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">troca do motor de partida </t>
+    <t>EG1663</t>
+  </si>
+  <si>
+    <t>EG1896</t>
+  </si>
+  <si>
+    <t>EG2138</t>
+  </si>
+  <si>
+    <t>EG2223</t>
+  </si>
+  <si>
+    <t>EG2368</t>
+  </si>
+  <si>
+    <t>EG2377</t>
+  </si>
+  <si>
+    <t>EG2380</t>
+  </si>
+  <si>
+    <t>EG2381</t>
+  </si>
+  <si>
+    <t>EG2382</t>
+  </si>
+  <si>
+    <t>EG2383</t>
+  </si>
+  <si>
+    <t>EG2389</t>
+  </si>
+  <si>
+    <t>EG2390</t>
+  </si>
+  <si>
+    <t>EG2392</t>
+  </si>
+  <si>
+    <t>EG2393</t>
+  </si>
+  <si>
+    <t>EG2402</t>
+  </si>
+  <si>
+    <t>EG2431</t>
+  </si>
+  <si>
+    <t>EG2432</t>
+  </si>
+  <si>
+    <t>EG2433</t>
+  </si>
+  <si>
+    <t>Fabricio Marden - 500013</t>
+  </si>
+  <si>
+    <t>EG2550</t>
+  </si>
+  <si>
+    <t>Buzina não funciona em certos movimentos do volante</t>
+  </si>
+  <si>
+    <t>Trilho conector perde contato</t>
+  </si>
+  <si>
+    <t>Foi removido o volante, feito ajuste dos contatos da buzina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +229,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +280,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -211,11 +337,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -254,7 +458,61 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,6 +528,1029 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.9173847385048919E-2"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:ofPieChart>
+        <c:ofPieType val="pie"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>01:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9643-4A17-81DA-3F57FC0DFC8D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9643-4A17-81DA-3F57FC0DFC8D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:sysClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-40DA-4350-B085-194EF0F8079C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:secondPieSize val="75"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="334">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>268941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>739589</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>122143</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6DDA4C-9829-CABF-E99A-48BE0A52ABD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -589,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EFA7E3-7836-4DCB-9118-B8C3EF633BFA}">
-  <dimension ref="A1:BF14"/>
+  <dimension ref="A1:BM14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,15 +1882,16 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
     <col min="10" max="10" width="21.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:65" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,43 +1981,696 @@
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
     </row>
-    <row r="2" spans="1:58" s="11" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:65" s="11" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>45636.723900462966</v>
-      </c>
+        <v>45684.770821759259</v>
+      </c>
+      <c r="B2" s="6">
+        <f>I5</f>
+        <v>45688</v>
+      </c>
+      <c r="C2" s="7">
+        <f>J5</f>
+        <v>0.875</v>
+      </c>
+      <c r="D2" s="7">
+        <f>K5</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E2" s="8" t="str">
+        <f>L5</f>
+        <v>Fabricio Marden - 500013</v>
+      </c>
+      <c r="F2" s="9" t="str">
+        <f>M5</f>
+        <v>EG2550</v>
+      </c>
+      <c r="G2" s="20" t="str">
+        <f>M5</f>
+        <v>EG2550</v>
+      </c>
+      <c r="H2" s="19" t="str">
+        <f>O5</f>
+        <v>Buzina não funciona em certos movimentos do volante</v>
+      </c>
+      <c r="I2" s="20" t="str">
+        <f>P5</f>
+        <v>Trilho conector perde contato</v>
+      </c>
+      <c r="J2" s="19" t="str">
+        <f>Q5</f>
+        <v>Foi removido o volante, feito ajuste dos contatos da buzina</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+    </row>
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="25"/>
+    </row>
+    <row r="4" spans="1:65" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="25"/>
+      <c r="R4" s="25"/>
+    </row>
+    <row r="5" spans="1:65" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="13">
+        <f>DAY(B2)</f>
+        <v>31</v>
+      </c>
+      <c r="E5" s="13">
+        <f>MONTH(B2)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="22">
+        <f>YEAR(B2)</f>
+        <v>2025</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="15">
+        <v>45689.367569444446</v>
+      </c>
+      <c r="I5" s="16">
+        <v>45688</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="K5" s="17">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="40">
+        <v>3644</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="18"/>
+      <c r="AZ5" s="18"/>
+      <c r="BA5" s="18"/>
+      <c r="BB5" s="18"/>
+      <c r="BC5" s="18"/>
+      <c r="BD5" s="18"/>
+      <c r="BE5" s="18"/>
+      <c r="BF5" s="18"/>
+      <c r="BG5" s="18"/>
+      <c r="BH5" s="18"/>
+      <c r="BI5" s="18"/>
+      <c r="BJ5" s="18"/>
+      <c r="BK5" s="18"/>
+      <c r="BL5" s="18"/>
+      <c r="BM5" s="18"/>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="25"/>
+    </row>
+    <row r="7" spans="1:65" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="13">
+        <f>HOUR(C2)</f>
+        <v>21</v>
+      </c>
+      <c r="E7" s="13">
+        <f>MINUTE(C2)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="11" t="str">
+        <f>LEFT(E2,4)</f>
+        <v>Fabr</v>
+      </c>
+      <c r="G7" s="23">
+        <f>HOUR(D2)</f>
+        <v>22</v>
+      </c>
+      <c r="H7" s="23">
+        <f>MINUTE(D2)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:65" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:65" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="14">
+        <f>D2-C2</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:65" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="G14" s="12"/>
+    </row>
+  </sheetData>
+  <dataConsolidate>
+    <dataRefs count="3">
+      <dataRef ref="D5:H7" sheet="Planilha1"/>
+      <dataRef ref="G7:H7" sheet="Planilha1"/>
+      <dataRef ref="J7:J8" sheet="Planilha1"/>
+    </dataRefs>
+  </dataConsolidate>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E323F81C-5C17-4ED6-8A7E-D57C4CFC6089}">
+  <dimension ref="B2:H40"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="31" t="e">
+        <f>H3</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H3" s="31" t="e">
+        <f>VLOOKUP(F3,B5:C9,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="36">
+        <v>27923</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="36">
+        <v>13708</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="36">
+        <v>22051</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="36">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="36">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="36">
+        <v>11054</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="36">
+        <v>8582</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="36">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="36">
+        <v>8562</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="36">
+        <v>16644</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="36">
+        <v>15656</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="36">
+        <v>21872</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="36">
+        <v>15857</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="36">
+        <v>12417</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="36">
+        <v>14333</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="36">
+        <v>11932</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="36">
+        <v>11202</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+    </row>
+    <row r="23" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+    </row>
+    <row r="24" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+    </row>
+    <row r="25" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+    </row>
+    <row r="26" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+    </row>
+    <row r="27" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+    </row>
+    <row r="28" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+    </row>
+    <row r="29" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+    </row>
+    <row r="30" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+    </row>
+    <row r="31" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+    </row>
+    <row r="32" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+    </row>
+    <row r="33" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+    </row>
+    <row r="34" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+    </row>
+    <row r="35" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+    </row>
+    <row r="36" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+    </row>
+    <row r="37" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+    </row>
+    <row r="38" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+    </row>
+    <row r="39" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+    </row>
+    <row r="40" spans="2:3" s="34" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EBA3A6-9715-4F2F-8467-8C24E9BD04DC}">
+  <dimension ref="A1:BF221"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+    </row>
+    <row r="2" spans="1:58" s="11" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
       <c r="B2" s="6">
         <v>45635</v>
       </c>
       <c r="C2" s="7">
-        <v>0.45902777777777776</v>
+        <v>0.34722222222222221</v>
       </c>
       <c r="D2" s="7">
-        <v>0.54166666666666663</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="9">
-        <v>2211</v>
-      </c>
-      <c r="G2" s="8">
-        <v>29336</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="N2" s="8"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
@@ -781,67 +2716,1297 @@
       <c r="BE2" s="10"/>
       <c r="BF2" s="10"/>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:58" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:58" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="13">
-        <f>DAY(B2)</f>
-        <v>9</v>
-      </c>
-      <c r="E5" s="13">
-        <f>MONTH(B2)</f>
-        <v>12</v>
-      </c>
-      <c r="F5" s="13">
-        <f>YEAR(B2)</f>
-        <v>2024</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:58" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="13">
-        <f>HOUR(C2)</f>
-        <v>11</v>
-      </c>
-      <c r="E7" s="13">
-        <f>MINUTE(C2)</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13">
-        <f>HOUR(D2)</f>
-        <v>13</v>
-      </c>
-      <c r="H7" s="13">
-        <f>MINUTE(D2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="G14" s="12"/>
+    <row r="3" spans="1:58" s="11" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6">
+        <v>45635</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+    </row>
+    <row r="4" spans="1:58" s="11" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6">
+        <v>45631</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+    </row>
+    <row r="5" spans="1:58" s="11" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10"/>
+    </row>
+    <row r="6" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E87" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E88" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E89" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E90" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E91" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E92" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E93" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E94" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E95" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E96" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E97" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E98" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E99" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E100" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E101" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E102" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E103" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E104" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E105" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E106" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E107" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E108" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E109" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E110" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E111" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E112" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E113" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E114" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E115" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E116" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E117" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E118" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E119" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E120" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E121" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E122" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E123" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E124" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E125" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E126" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E127" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E128" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E129" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E130" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E131" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E132" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E133" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E134" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E135" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E136" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E137" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E138" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E139" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E140" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E141" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E142" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E143" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E144" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E145" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E146" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E147" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E148" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E149" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E150" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E151" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E152" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E153" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E154" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E155" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E156" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E157" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E158" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E159" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E160" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E161" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E162" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E163" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E164" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E165" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E166" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E167" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E168" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E169" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E170" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E171" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E172" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E173" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E174" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E175" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E176" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="177" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E177" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E178" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E179" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E180" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E181" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E182" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E183" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E184" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E185" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E186" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E187" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E188" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E189" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E190" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E191" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E192" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E193" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E194" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E195" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E196" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="197" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E197" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E198" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E199" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E200" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="201" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E201" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E202" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E203" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E204" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E205" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E206" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E207" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E208" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E209" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E210" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E211" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E212" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E213" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E214" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="215" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E215" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E216" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="217" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E217" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E218" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E219" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="220" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E220" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="221" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E221" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/teste.xlsx
+++ b/teste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nextrental-my.sharepoint.com/personal/victor_souza_nextrental_com_br/Documents/Área de Trabalho/bot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VictorMendesdeSouza\Downloads\Bot_automacao_OS-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="699" documentId="13_ncr:1_{A5F85EC6-2A1A-42C3-9561-3B8442BADEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1185058A-F074-4AA7-88E9-62357B20AE8A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFB182D-855E-49B1-89B3-3E53F53FCA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{450D5B48-F670-4EB3-8212-68DADCB5FA92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{450D5B48-F670-4EB3-8212-68DADCB5FA92}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="51">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -175,19 +175,25 @@
     <t>EG2433</t>
   </si>
   <si>
-    <t>Fabricio Marden - 500013</t>
-  </si>
-  <si>
-    <t>EG2550</t>
-  </si>
-  <si>
-    <t>Buzina não funciona em certos movimentos do volante</t>
-  </si>
-  <si>
-    <t>Trilho conector perde contato</t>
-  </si>
-  <si>
-    <t>Foi removido o volante, feito ajuste dos contatos da buzina</t>
+    <t>antonio</t>
+  </si>
+  <si>
+    <t>Alefh - 365012</t>
+  </si>
+  <si>
+    <t>05/02/0025</t>
+  </si>
+  <si>
+    <t>Eg2353</t>
+  </si>
+  <si>
+    <t>Queimou junta do cabeçote</t>
+  </si>
+  <si>
+    <t>Temperatura alta</t>
+  </si>
+  <si>
+    <t>Testes</t>
   </si>
 </sst>
 </file>
@@ -249,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +301,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D9EEB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,12 +474,6 @@
     <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -510,8 +516,14 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,7 +609,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>01:00:00</c:v>
+                  <c:v>02:55:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1549,10 +1561,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -1873,25 +1881,25 @@
   <dimension ref="A1:BM14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:65" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1981,56 +1989,56 @@
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
     </row>
-    <row r="2" spans="1:65" s="11" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:65" s="11" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>45684.770821759259</v>
       </c>
-      <c r="B2" s="6">
-        <f>I5</f>
-        <v>45688</v>
+      <c r="B2" s="6" t="str">
+        <f t="shared" ref="B2:J2" si="0">I5</f>
+        <v>05/02/0025</v>
       </c>
       <c r="C2" s="7">
-        <f>J5</f>
-        <v>0.875</v>
+        <f t="shared" si="0"/>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="D2" s="7">
-        <f>K5</f>
-        <v>0.91666666666666663</v>
+        <f t="shared" si="0"/>
+        <v>0.1736111111111111</v>
       </c>
       <c r="E2" s="8" t="str">
-        <f>L5</f>
-        <v>Fabricio Marden - 500013</v>
+        <f t="shared" si="0"/>
+        <v>Alefh - 365012</v>
       </c>
       <c r="F2" s="9" t="str">
-        <f>M5</f>
-        <v>EG2550</v>
-      </c>
-      <c r="G2" s="20" t="str">
-        <f>M5</f>
-        <v>EG2550</v>
-      </c>
-      <c r="H2" s="19" t="str">
-        <f>O5</f>
-        <v>Buzina não funciona em certos movimentos do volante</v>
-      </c>
-      <c r="I2" s="20" t="str">
-        <f>P5</f>
-        <v>Trilho conector perde contato</v>
-      </c>
-      <c r="J2" s="19" t="str">
-        <f>Q5</f>
-        <v>Foi removido o volante, feito ajuste dos contatos da buzina</v>
-      </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+        <f t="shared" si="0"/>
+        <v>Eg2353</v>
+      </c>
+      <c r="G2" s="18">
+        <f t="shared" si="0"/>
+        <v>13207</v>
+      </c>
+      <c r="H2" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Queimou junta do cabeçote</v>
+      </c>
+      <c r="I2" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Temperatura alta</v>
+      </c>
+      <c r="J2" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Testes</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
@@ -2072,161 +2080,161 @@
       <c r="BE2" s="10"/>
       <c r="BF2" s="10"/>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="25"/>
-    </row>
-    <row r="4" spans="1:65" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="25"/>
-      <c r="R4" s="25"/>
-    </row>
-    <row r="5" spans="1:65" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="13">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="23"/>
+    </row>
+    <row r="4" spans="1:65" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="23"/>
+      <c r="R4" s="23"/>
+    </row>
+    <row r="5" spans="1:65" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="13" t="e">
         <f>DAY(B2)</f>
-        <v>31</v>
-      </c>
-      <c r="E5" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E5" s="13" t="e">
         <f>MONTH(B2)</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" s="20" t="e">
         <f>YEAR(B2)</f>
-        <v>2025</v>
-      </c>
-      <c r="G5" s="29"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G5" s="27"/>
       <c r="H5" s="15">
-        <v>45689.367569444446</v>
-      </c>
-      <c r="I5" s="16">
-        <v>45688</v>
-      </c>
-      <c r="J5" s="17">
-        <v>0.875</v>
-      </c>
-      <c r="K5" s="17">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="18" t="s">
+        <v>45693.146192129629</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="38">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="K5" s="38">
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="L5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="40">
-        <v>3644</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="18" t="s">
+      <c r="M5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="18" t="s">
+      <c r="N5" s="39">
+        <v>13207</v>
+      </c>
+      <c r="O5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18" t="s">
+      <c r="P5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="18"/>
-      <c r="AO5" s="18"/>
-      <c r="AP5" s="18"/>
-      <c r="AQ5" s="18"/>
-      <c r="AR5" s="18"/>
-      <c r="AS5" s="18"/>
-      <c r="AT5" s="18"/>
-      <c r="AU5" s="18"/>
-      <c r="AV5" s="18"/>
-      <c r="AW5" s="18"/>
-      <c r="AX5" s="18"/>
-      <c r="AY5" s="18"/>
-      <c r="AZ5" s="18"/>
-      <c r="BA5" s="18"/>
-      <c r="BB5" s="18"/>
-      <c r="BC5" s="18"/>
-      <c r="BD5" s="18"/>
-      <c r="BE5" s="18"/>
-      <c r="BF5" s="18"/>
-      <c r="BG5" s="18"/>
-      <c r="BH5" s="18"/>
-      <c r="BI5" s="18"/>
-      <c r="BJ5" s="18"/>
-      <c r="BK5" s="18"/>
-      <c r="BL5" s="18"/>
-      <c r="BM5" s="18"/>
-    </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="40"/>
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="40"/>
+      <c r="AL5" s="40"/>
+      <c r="AM5" s="40"/>
+      <c r="AN5" s="40"/>
+      <c r="AO5" s="40"/>
+      <c r="AP5" s="40"/>
+      <c r="AQ5" s="40"/>
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="40"/>
+      <c r="AV5" s="40"/>
+      <c r="AW5" s="40"/>
+      <c r="AX5" s="40"/>
+      <c r="AY5" s="40"/>
+      <c r="AZ5" s="40"/>
+      <c r="BA5" s="40"/>
+      <c r="BB5" s="40"/>
+      <c r="BC5" s="40"/>
+      <c r="BD5" s="40"/>
+      <c r="BE5" s="40"/>
+      <c r="BF5" s="40"/>
+      <c r="BG5" s="40"/>
+      <c r="BH5" s="40"/>
+      <c r="BI5" s="40"/>
+      <c r="BJ5" s="40"/>
+      <c r="BK5" s="40"/>
+      <c r="BL5" s="40"/>
+      <c r="BM5" s="40"/>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.3">
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="25"/>
-    </row>
-    <row r="7" spans="1:65" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="23"/>
+    </row>
+    <row r="7" spans="1:65" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="13">
         <f>HOUR(C2)</f>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E7" s="13">
         <f>MINUTE(C2)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F7" s="11" t="str">
         <f>LEFT(E2,4)</f>
-        <v>Fabr</v>
-      </c>
-      <c r="G7" s="23">
+        <v>Alef</v>
+      </c>
+      <c r="G7" s="21">
         <f>HOUR(D2)</f>
-        <v>22</v>
-      </c>
-      <c r="H7" s="23">
+        <v>4</v>
+      </c>
+      <c r="H7" s="21">
         <f>MINUTE(D2)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="11"/>
-      <c r="J7" s="24"/>
-    </row>
-    <row r="8" spans="1:65" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:65" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -2235,10 +2243,10 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:65" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:65" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E9" s="14">
         <f>D2-C2</f>
-        <v>4.166666666666663E-2</v>
+        <v>0.12152777777777776</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>19</v>
@@ -2257,7 +2265,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:65" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:65" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F10" s="8" t="s">
         <v>18</v>
       </c>
@@ -2271,7 +2279,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:65" x14ac:dyDescent="0.3">
       <c r="G14" s="12"/>
     </row>
   </sheetData>
@@ -2293,240 +2304,240 @@
   <dimension ref="B2:H40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="32" t="s">
+    <row r="2" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="31" t="e">
+      <c r="G3" s="29" t="e">
         <f>H3</f>
         <v>#N/A</v>
       </c>
-      <c r="H3" s="31" t="e">
+      <c r="H3" s="29" t="e">
         <f>VLOOKUP(F3,B5:C9,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
+    <row r="4" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:8" s="35" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="34">
         <v>27923</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="36" t="s">
+    <row r="6" spans="2:8" s="35" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="34">
         <v>13708</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+    <row r="7" spans="2:8" s="35" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="34">
         <v>22051</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
+    <row r="8" spans="2:8" s="35" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="34">
         <v>2231</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
+    <row r="9" spans="2:8" s="35" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="34">
         <v>4217</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="36" t="s">
+    <row r="10" spans="2:8" s="35" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="34">
         <v>11054</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="36" t="s">
+    <row r="11" spans="2:8" s="35" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="34">
         <v>8582</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="2:8" s="35" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="34">
         <v>6105</v>
       </c>
     </row>
-    <row r="13" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="36" t="s">
+    <row r="13" spans="2:8" s="35" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="34">
         <v>8562</v>
       </c>
     </row>
-    <row r="14" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="36" t="s">
+    <row r="14" spans="2:8" s="35" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="34">
         <v>16644</v>
       </c>
     </row>
-    <row r="15" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="2:8" s="35" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="34">
         <v>15656</v>
       </c>
     </row>
-    <row r="16" spans="2:8" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="36" t="s">
+    <row r="16" spans="2:8" s="35" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="34">
         <v>21872</v>
       </c>
     </row>
-    <row r="17" spans="2:3" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="36" t="s">
+    <row r="17" spans="2:3" s="35" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="34">
         <v>15857</v>
       </c>
     </row>
-    <row r="18" spans="2:3" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="36" t="s">
+    <row r="18" spans="2:3" s="35" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="34">
         <v>12417</v>
       </c>
     </row>
-    <row r="19" spans="2:3" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="36" t="s">
+    <row r="19" spans="2:3" s="35" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="34">
         <v>14333</v>
       </c>
     </row>
-    <row r="20" spans="2:3" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="36" t="s">
+    <row r="20" spans="2:3" s="35" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="34">
         <v>11932</v>
       </c>
     </row>
-    <row r="21" spans="2:3" s="37" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+    <row r="21" spans="2:3" s="35" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="34">
         <v>11202</v>
       </c>
     </row>
-    <row r="22" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-    </row>
-    <row r="23" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-    </row>
-    <row r="24" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-    </row>
-    <row r="25" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-    </row>
-    <row r="26" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-    </row>
-    <row r="27" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-    </row>
-    <row r="28" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-    </row>
-    <row r="29" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-    </row>
-    <row r="30" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-    </row>
-    <row r="31" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-    </row>
-    <row r="32" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-    </row>
-    <row r="33" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-    </row>
-    <row r="34" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-    </row>
-    <row r="35" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-    </row>
-    <row r="36" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-    </row>
-    <row r="37" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-    </row>
-    <row r="38" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-    </row>
-    <row r="39" spans="2:3" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-    </row>
-    <row r="40" spans="2:3" s="34" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
+    <row r="22" spans="2:3" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+    </row>
+    <row r="23" spans="2:3" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+    </row>
+    <row r="24" spans="2:3" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+    </row>
+    <row r="25" spans="2:3" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+    </row>
+    <row r="26" spans="2:3" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+    </row>
+    <row r="27" spans="2:3" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+    </row>
+    <row r="28" spans="2:3" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+    </row>
+    <row r="29" spans="2:3" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+    </row>
+    <row r="30" spans="2:3" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+    </row>
+    <row r="31" spans="2:3" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+    </row>
+    <row r="32" spans="2:3" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+    </row>
+    <row r="33" spans="2:3" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+    </row>
+    <row r="34" spans="2:3" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+    </row>
+    <row r="35" spans="2:3" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+    </row>
+    <row r="36" spans="2:3" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+    </row>
+    <row r="37" spans="2:3" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+    </row>
+    <row r="38" spans="2:3" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+    </row>
+    <row r="39" spans="2:3" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+    </row>
+    <row r="40" spans="2:3" s="32" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2535,24 +2546,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EBA3A6-9715-4F2F-8467-8C24E9BD04DC}">
-  <dimension ref="A1:BF221"/>
+  <dimension ref="A1:BF217"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2642,19 +2653,19 @@
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
     </row>
-    <row r="2" spans="1:58" s="11" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:58" s="11" customFormat="1" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6">
-        <v>45635</v>
+        <v>45674</v>
       </c>
       <c r="C2" s="7">
-        <v>0.34722222222222221</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D2" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.65833333333333333</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>24</v>
@@ -2716,19 +2727,19 @@
       <c r="BE2" s="10"/>
       <c r="BF2" s="10"/>
     </row>
-    <row r="3" spans="1:58" s="11" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" s="11" customFormat="1" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6">
-        <v>45635</v>
+        <v>45675</v>
       </c>
       <c r="C3" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D3" s="7">
-        <v>0.65833333333333333</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>24</v>
@@ -2790,19 +2801,19 @@
       <c r="BE3" s="10"/>
       <c r="BF3" s="10"/>
     </row>
-    <row r="4" spans="1:58" s="11" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" s="11" customFormat="1" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="6">
-        <v>45631</v>
+        <v>45675</v>
       </c>
       <c r="C4" s="7">
-        <v>0.61805555555555558</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D4" s="7">
         <v>0.65833333333333333</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>24</v>
@@ -2864,13 +2875,13 @@
       <c r="BE4" s="10"/>
       <c r="BF4" s="10"/>
     </row>
-    <row r="5" spans="1:58" s="11" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" s="11" customFormat="1" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="8"/>
@@ -2926,1083 +2937,1348 @@
       <c r="BE5" s="10"/>
       <c r="BF5" s="10"/>
     </row>
-    <row r="6" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" s="11" customFormat="1" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+    </row>
+    <row r="7" spans="1:58" s="11" customFormat="1" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="10"/>
+      <c r="BE7" s="10"/>
+      <c r="BF7" s="10"/>
+    </row>
+    <row r="8" spans="1:58" s="11" customFormat="1" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="10"/>
+      <c r="AZ8" s="10"/>
+      <c r="BA8" s="10"/>
+      <c r="BB8" s="10"/>
+      <c r="BC8" s="10"/>
+      <c r="BD8" s="10"/>
+      <c r="BE8" s="10"/>
+      <c r="BF8" s="10"/>
+    </row>
+    <row r="9" spans="1:58" s="11" customFormat="1" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="10"/>
+      <c r="BA9" s="10"/>
+      <c r="BB9" s="10"/>
+      <c r="BC9" s="10"/>
+      <c r="BD9" s="10"/>
+      <c r="BE9" s="10"/>
+      <c r="BF9" s="10"/>
+    </row>
+    <row r="10" spans="1:58" s="11" customFormat="1" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="10"/>
+      <c r="BA10" s="10"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="10"/>
+      <c r="BD10" s="10"/>
+      <c r="BE10" s="10"/>
+      <c r="BF10" s="10"/>
+    </row>
+    <row r="11" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E12" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E13" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E15" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E16" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E17" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E18" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E21" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E22" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E23" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E24" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E25" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E26" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E27" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E29" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E30" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E31" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E32" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E33" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E34" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E36" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E37" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E38" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E39" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E40" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E41" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E42" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E43" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E44" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E45" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E46" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E47" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E48" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E49" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E50" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E51" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E52" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E53" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E54" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E55" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E56" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E58" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E59" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E60" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E61" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E62" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E63" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E64" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E65" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E66" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E67" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E68" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E69" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E70" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E71" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E72" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E73" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E74" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E75" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E76" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E77" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E78" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E79" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E80" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E81" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E82" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E83" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E84" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E85" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E86" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E87" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E88" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E89" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E90" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E91" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E92" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E93" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E94" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E95" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E96" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E97" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E98" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E99" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E100" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E101" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E102" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E103" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E104" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E105" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E106" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E107" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E108" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E109" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E110" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E111" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E112" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E113" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E114" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E115" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E116" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E117" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E118" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E119" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E120" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E121" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E122" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E123" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E124" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E125" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E126" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E127" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E128" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E129" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E130" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E131" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E132" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E133" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E134" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E135" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E136" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E137" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E138" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E139" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E140" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E141" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E142" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E143" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E144" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E145" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E146" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E147" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E148" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E149" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E150" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E151" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E152" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E153" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E154" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E155" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E156" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E157" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E158" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E159" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E160" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E161" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E162" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E163" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E164" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E165" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E166" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E167" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E168" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E169" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E170" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E171" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E172" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E173" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E174" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E175" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E176" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E177" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E178" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E179" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E180" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E181" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E182" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E183" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E184" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E185" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E186" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E187" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E188" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E189" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E190" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E191" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E192" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E193" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E194" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E195" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E196" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E197" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E198" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E199" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E200" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E201" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E202" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E203" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E204" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E205" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E206" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E207" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E208" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E209" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E210" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E211" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E212" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="213" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E213" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E214" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E215" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E216" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="217" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="5:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E217" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="218" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E218" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="219" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E219" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="220" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E220" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="221" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E221" s="8" t="s">
         <v>22</v>
       </c>
     </row>
